--- a/stuff/experiments/params_experiments.xlsx
+++ b/stuff/experiments/params_experiments.xlsx
@@ -6,8 +6,9 @@
     <sheet state="visible" name="params_q_0" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="params_p" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="params_penalty" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="params_proximity_dif_size" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="params_penalty_dif_size" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="params_penalty_p_0-3" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="params_proximity_dif_size" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="params_penalty_dif_size" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="13">
   <si>
     <t>size</t>
   </si>
@@ -98,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -112,6 +113,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -139,6 +146,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -887,7 +898,7 @@
       <c r="H2" s="1">
         <v>0.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>0.7</v>
       </c>
       <c r="J2" s="2">
@@ -919,7 +930,7 @@
       <c r="H3" s="1">
         <v>0.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>0.7</v>
       </c>
       <c r="J3" s="2">
@@ -951,7 +962,7 @@
       <c r="H4" s="1">
         <v>0.0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>0.7</v>
       </c>
       <c r="J4" s="2">
@@ -977,13 +988,13 @@
       <c r="E5" s="1">
         <v>2.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
         <v>0.0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>0.7</v>
       </c>
       <c r="J5" s="2">
@@ -1009,13 +1020,13 @@
       <c r="E6" s="1">
         <v>2.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.5</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>0.7</v>
       </c>
       <c r="J6" s="2">
@@ -1041,13 +1052,13 @@
       <c r="E7" s="1">
         <v>2.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.5</v>
       </c>
       <c r="H7" s="1">
         <v>0.0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>0.7</v>
       </c>
       <c r="J7" s="2">
@@ -1073,7 +1084,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1100,7 +1111,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1108,8 +1119,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>10.0</v>
+      <c r="A2" s="1">
+        <v>50.0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0</v>
@@ -1124,24 +1135,24 @@
         <v>2.0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H2" s="1">
         <v>0.0</v>
       </c>
-      <c r="I2" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.7</v>
+      <c r="I2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.4</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>20.0</v>
+      <c r="A3" s="1">
+        <v>50.0</v>
       </c>
       <c r="B3" s="1">
         <v>10.0</v>
@@ -1156,24 +1167,24 @@
         <v>2.0</v>
       </c>
       <c r="F3" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H3" s="1">
         <v>0.0</v>
       </c>
-      <c r="I3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.7</v>
+      <c r="I3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.6</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
-        <v>30.0</v>
+      <c r="A4" s="1">
+        <v>50.0</v>
       </c>
       <c r="B4" s="1">
         <v>10.0</v>
@@ -1188,24 +1199,24 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="1">
         <v>0.0</v>
       </c>
-      <c r="I4" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.7</v>
+      <c r="I4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.8</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
-        <v>40.0</v>
+      <c r="A5" s="1">
+        <v>50.0</v>
       </c>
       <c r="B5" s="1">
         <v>10.0</v>
@@ -1220,23 +1231,23 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H5" s="1">
         <v>0.0</v>
       </c>
-      <c r="I5" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.7</v>
+      <c r="I5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.4</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>50.0</v>
       </c>
       <c r="B6" s="1">
@@ -1252,24 +1263,24 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
       </c>
-      <c r="I6" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.7</v>
+      <c r="I6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.6</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>60.0</v>
+      <c r="A7" s="1">
+        <v>50.0</v>
       </c>
       <c r="B7" s="1">
         <v>10.0</v>
@@ -1284,466 +1295,18 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H7" s="1">
         <v>0.0</v>
       </c>
-      <c r="I7" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.7</v>
+      <c r="I7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.8</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1763,7 +1326,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1790,7 +1353,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1798,7 +1361,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>10.0</v>
       </c>
       <c r="B2" s="1">
@@ -1814,23 +1377,713 @@
         <v>2.0</v>
       </c>
       <c r="F2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="5">
         <v>0.5</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>20.0</v>
       </c>
       <c r="B3" s="1">
@@ -1846,23 +2099,23 @@
         <v>2.0</v>
       </c>
       <c r="F3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="5">
         <v>0.5</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>30.0</v>
       </c>
       <c r="B4" s="1">
@@ -1878,23 +2131,23 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="5">
         <v>0.5</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>40.0</v>
       </c>
       <c r="B5" s="1">
@@ -1910,23 +2163,23 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="5">
         <v>0.5</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>50.0</v>
       </c>
       <c r="B6" s="1">
@@ -1942,23 +2195,23 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="5">
         <v>0.5</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>60.0</v>
       </c>
       <c r="B7" s="1">
@@ -1974,23 +2227,23 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="5">
         <v>0.5</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>70.0</v>
       </c>
       <c r="B8" s="1">
@@ -2006,23 +2259,23 @@
         <v>2.0</v>
       </c>
       <c r="F8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="5">
         <v>0.5</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>80.0</v>
       </c>
       <c r="B9" s="1">
@@ -2038,23 +2291,23 @@
         <v>2.0</v>
       </c>
       <c r="F9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="5">
         <v>0.5</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>90.0</v>
       </c>
       <c r="B10" s="1">
@@ -2070,23 +2323,23 @@
         <v>2.0</v>
       </c>
       <c r="F10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="5">
         <v>0.5</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>100.0</v>
       </c>
       <c r="B11" s="1">
@@ -2102,23 +2355,23 @@
         <v>2.0</v>
       </c>
       <c r="F11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="5">
         <v>0.5</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.7</v>
-      </c>
       <c r="K11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>10.0</v>
       </c>
       <c r="B12" s="1">
@@ -2134,23 +2387,23 @@
         <v>2.0</v>
       </c>
       <c r="F12" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H12" s="1">
         <v>0.0</v>
       </c>
-      <c r="I12" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="I12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>20.0</v>
       </c>
       <c r="B13" s="1">
@@ -2166,23 +2419,23 @@
         <v>2.0</v>
       </c>
       <c r="F13" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H13" s="1">
         <v>0.0</v>
       </c>
-      <c r="I13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>30.0</v>
       </c>
       <c r="B14" s="1">
@@ -2198,23 +2451,23 @@
         <v>2.0</v>
       </c>
       <c r="F14" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H14" s="1">
         <v>0.0</v>
       </c>
-      <c r="I14" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>40.0</v>
       </c>
       <c r="B15" s="1">
@@ -2230,23 +2483,23 @@
         <v>2.0</v>
       </c>
       <c r="F15" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H15" s="1">
         <v>0.0</v>
       </c>
-      <c r="I15" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="I15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>50.0</v>
       </c>
       <c r="B16" s="1">
@@ -2262,23 +2515,23 @@
         <v>2.0</v>
       </c>
       <c r="F16" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H16" s="1">
         <v>0.0</v>
       </c>
-      <c r="I16" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>60.0</v>
       </c>
       <c r="B17" s="1">
@@ -2294,23 +2547,23 @@
         <v>2.0</v>
       </c>
       <c r="F17" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H17" s="1">
         <v>0.0</v>
       </c>
-      <c r="I17" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>70.0</v>
       </c>
       <c r="B18" s="1">
@@ -2326,23 +2579,23 @@
         <v>2.0</v>
       </c>
       <c r="F18" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="1">
         <v>0.0</v>
       </c>
-      <c r="I18" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="I18" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>80.0</v>
       </c>
       <c r="B19" s="1">
@@ -2358,23 +2611,23 @@
         <v>2.0</v>
       </c>
       <c r="F19" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H19" s="1">
         <v>0.0</v>
       </c>
-      <c r="I19" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>90.0</v>
       </c>
       <c r="B20" s="1">
@@ -2390,23 +2643,23 @@
         <v>2.0</v>
       </c>
       <c r="F20" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H20" s="1">
         <v>0.0</v>
       </c>
-      <c r="I20" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>100.0</v>
       </c>
       <c r="B21" s="1">
@@ -2422,60 +2675,980 @@
         <v>2.0</v>
       </c>
       <c r="F21" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H21" s="1">
         <v>0.0</v>
       </c>
-      <c r="I21" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="I21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22">
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="A27" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="A28" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="A29" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="A30" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31">
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="A31" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/stuff/experiments/params_experiments.xlsx
+++ b/stuff/experiments/params_experiments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="13">
   <si>
     <t>size</t>
   </si>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -112,13 +112,10 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1134,7 +1131,7 @@
       <c r="E2" s="1">
         <v>2.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0.3</v>
       </c>
       <c r="H2" s="1">
@@ -1143,7 +1140,7 @@
       <c r="I2" s="1">
         <v>0.7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>0.4</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1166,7 +1163,7 @@
       <c r="E3" s="1">
         <v>2.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0.3</v>
       </c>
       <c r="H3" s="1">
@@ -1175,7 +1172,7 @@
       <c r="I3" s="1">
         <v>0.7</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.6</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1198,7 +1195,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.3</v>
       </c>
       <c r="H4" s="1">
@@ -1207,7 +1204,7 @@
       <c r="I4" s="1">
         <v>0.7</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.8</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1230,7 +1227,7 @@
       <c r="E5" s="1">
         <v>2.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.3</v>
       </c>
       <c r="H5" s="1">
@@ -1239,7 +1236,7 @@
       <c r="I5" s="1">
         <v>0.7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.4</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1262,7 +1259,7 @@
       <c r="E6" s="1">
         <v>2.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.3</v>
       </c>
       <c r="H6" s="1">
@@ -1271,7 +1268,7 @@
       <c r="I6" s="1">
         <v>0.7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.6</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1294,7 +1291,7 @@
       <c r="E7" s="1">
         <v>2.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.3</v>
       </c>
       <c r="H7" s="1">
@@ -1303,7 +1300,7 @@
       <c r="I7" s="1">
         <v>0.7</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.8</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -1376,7 +1373,7 @@
       <c r="E2" s="1">
         <v>2.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0.3</v>
       </c>
       <c r="H2" s="1">
@@ -1385,7 +1382,7 @@
       <c r="I2" s="1">
         <v>0.7</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>0.75</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1408,7 +1405,7 @@
       <c r="E3" s="1">
         <v>2.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0.3</v>
       </c>
       <c r="H3" s="1">
@@ -1417,7 +1414,7 @@
       <c r="I3" s="1">
         <v>0.7</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>0.75</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1440,7 +1437,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.3</v>
       </c>
       <c r="H4" s="1">
@@ -1449,7 +1446,7 @@
       <c r="I4" s="1">
         <v>0.7</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>0.75</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1472,7 +1469,7 @@
       <c r="E5" s="1">
         <v>2.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.3</v>
       </c>
       <c r="H5" s="1">
@@ -1481,7 +1478,7 @@
       <c r="I5" s="1">
         <v>0.7</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>0.75</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1504,7 +1501,7 @@
       <c r="E6" s="1">
         <v>2.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.3</v>
       </c>
       <c r="H6" s="1">
@@ -1513,7 +1510,7 @@
       <c r="I6" s="1">
         <v>0.7</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>0.75</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1536,7 +1533,7 @@
       <c r="E7" s="1">
         <v>2.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.3</v>
       </c>
       <c r="H7" s="1">
@@ -1545,7 +1542,7 @@
       <c r="I7" s="1">
         <v>0.7</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>0.75</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -1568,7 +1565,7 @@
       <c r="E8" s="1">
         <v>2.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0.3</v>
       </c>
       <c r="H8" s="1">
@@ -1577,7 +1574,7 @@
       <c r="I8" s="1">
         <v>0.7</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>0.75</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1600,7 +1597,7 @@
       <c r="E9" s="1">
         <v>2.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0.3</v>
       </c>
       <c r="H9" s="1">
@@ -1609,7 +1606,7 @@
       <c r="I9" s="1">
         <v>0.7</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>0.75</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1632,7 +1629,7 @@
       <c r="E10" s="1">
         <v>2.0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>0.3</v>
       </c>
       <c r="H10" s="1">
@@ -1641,7 +1638,7 @@
       <c r="I10" s="1">
         <v>0.7</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>0.75</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1664,7 +1661,7 @@
       <c r="E11" s="1">
         <v>2.0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>0.3</v>
       </c>
       <c r="H11" s="1">
@@ -1673,7 +1670,7 @@
       <c r="I11" s="1">
         <v>0.7</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>0.75</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1696,7 +1693,7 @@
       <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>0.3</v>
       </c>
       <c r="H12" s="1">
@@ -1705,7 +1702,7 @@
       <c r="I12" s="1">
         <v>0.7</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <v>0.75</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1728,7 +1725,7 @@
       <c r="E13" s="1">
         <v>2.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0.3</v>
       </c>
       <c r="H13" s="1">
@@ -1737,7 +1734,7 @@
       <c r="I13" s="1">
         <v>0.7</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>0.75</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1760,7 +1757,7 @@
       <c r="E14" s="1">
         <v>2.0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0.3</v>
       </c>
       <c r="H14" s="1">
@@ -1769,7 +1766,7 @@
       <c r="I14" s="1">
         <v>0.7</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>0.75</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -1792,7 +1789,7 @@
       <c r="E15" s="1">
         <v>2.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>0.3</v>
       </c>
       <c r="H15" s="1">
@@ -1801,7 +1798,7 @@
       <c r="I15" s="1">
         <v>0.7</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="1">
         <v>0.75</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -1824,7 +1821,7 @@
       <c r="E16" s="1">
         <v>2.0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>0.3</v>
       </c>
       <c r="H16" s="1">
@@ -1833,7 +1830,7 @@
       <c r="I16" s="1">
         <v>0.7</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="1">
         <v>0.75</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -1856,7 +1853,7 @@
       <c r="E17" s="1">
         <v>2.0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>0.3</v>
       </c>
       <c r="H17" s="1">
@@ -1865,7 +1862,7 @@
       <c r="I17" s="1">
         <v>0.7</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="1">
         <v>0.75</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -1888,7 +1885,7 @@
       <c r="E18" s="1">
         <v>2.0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>0.3</v>
       </c>
       <c r="H18" s="1">
@@ -1897,7 +1894,7 @@
       <c r="I18" s="1">
         <v>0.7</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="1">
         <v>0.75</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1920,7 +1917,7 @@
       <c r="E19" s="1">
         <v>2.0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>0.3</v>
       </c>
       <c r="H19" s="1">
@@ -1929,7 +1926,7 @@
       <c r="I19" s="1">
         <v>0.7</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="1">
         <v>0.75</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -1952,7 +1949,7 @@
       <c r="E20" s="1">
         <v>2.0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>0.3</v>
       </c>
       <c r="H20" s="1">
@@ -1961,7 +1958,7 @@
       <c r="I20" s="1">
         <v>0.7</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="1">
         <v>0.75</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -1984,7 +1981,7 @@
       <c r="E21" s="1">
         <v>2.0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>0.3</v>
       </c>
       <c r="H21" s="1">
@@ -1993,10 +1990,650 @@
       <c r="I21" s="1">
         <v>0.7</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="1">
         <v>0.75</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>110.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
+        <v>120.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>130.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>140.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>150.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4">
+        <v>160.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>170.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>180.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>190.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>110.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4">
+        <v>120.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4">
+        <v>130.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4">
+        <v>140.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4">
+        <v>150.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4">
+        <v>160.0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4">
+        <v>170.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4">
+        <v>180.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4">
+        <v>190.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2016,7 +2653,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2043,7 +2680,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2051,7 +2688,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>10.0</v>
       </c>
       <c r="B2" s="1">
@@ -2066,7 +2703,7 @@
       <c r="E2" s="1">
         <v>2.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0.3</v>
       </c>
       <c r="H2" s="1">
@@ -2075,7 +2712,7 @@
       <c r="I2" s="1">
         <v>0.7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>0.5</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -2083,7 +2720,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>20.0</v>
       </c>
       <c r="B3" s="1">
@@ -2098,7 +2735,7 @@
       <c r="E3" s="1">
         <v>2.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0.3</v>
       </c>
       <c r="H3" s="1">
@@ -2107,7 +2744,7 @@
       <c r="I3" s="1">
         <v>0.7</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>0.5</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -2115,7 +2752,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>30.0</v>
       </c>
       <c r="B4" s="1">
@@ -2130,7 +2767,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.3</v>
       </c>
       <c r="H4" s="1">
@@ -2139,7 +2776,7 @@
       <c r="I4" s="1">
         <v>0.7</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>0.5</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -2147,7 +2784,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>40.0</v>
       </c>
       <c r="B5" s="1">
@@ -2162,7 +2799,7 @@
       <c r="E5" s="1">
         <v>2.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.3</v>
       </c>
       <c r="H5" s="1">
@@ -2171,7 +2808,7 @@
       <c r="I5" s="1">
         <v>0.7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>0.5</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -2179,7 +2816,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>50.0</v>
       </c>
       <c r="B6" s="1">
@@ -2194,7 +2831,7 @@
       <c r="E6" s="1">
         <v>2.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.3</v>
       </c>
       <c r="H6" s="1">
@@ -2203,7 +2840,7 @@
       <c r="I6" s="1">
         <v>0.7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>0.5</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2211,7 +2848,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>60.0</v>
       </c>
       <c r="B7" s="1">
@@ -2226,7 +2863,7 @@
       <c r="E7" s="1">
         <v>2.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.3</v>
       </c>
       <c r="H7" s="1">
@@ -2235,7 +2872,7 @@
       <c r="I7" s="1">
         <v>0.7</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <v>0.5</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2243,7 +2880,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>70.0</v>
       </c>
       <c r="B8" s="1">
@@ -2258,7 +2895,7 @@
       <c r="E8" s="1">
         <v>2.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0.3</v>
       </c>
       <c r="H8" s="1">
@@ -2267,7 +2904,7 @@
       <c r="I8" s="1">
         <v>0.7</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <v>0.5</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -2275,7 +2912,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>80.0</v>
       </c>
       <c r="B9" s="1">
@@ -2290,7 +2927,7 @@
       <c r="E9" s="1">
         <v>2.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0.3</v>
       </c>
       <c r="H9" s="1">
@@ -2299,7 +2936,7 @@
       <c r="I9" s="1">
         <v>0.7</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>0.5</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -2307,7 +2944,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>90.0</v>
       </c>
       <c r="B10" s="1">
@@ -2322,7 +2959,7 @@
       <c r="E10" s="1">
         <v>2.0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>0.3</v>
       </c>
       <c r="H10" s="1">
@@ -2331,7 +2968,7 @@
       <c r="I10" s="1">
         <v>0.7</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <v>0.5</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -2339,7 +2976,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>100.0</v>
       </c>
       <c r="B11" s="1">
@@ -2354,7 +2991,7 @@
       <c r="E11" s="1">
         <v>2.0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>0.3</v>
       </c>
       <c r="H11" s="1">
@@ -2363,7 +3000,7 @@
       <c r="I11" s="1">
         <v>0.7</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <v>0.5</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -2371,7 +3008,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>10.0</v>
       </c>
       <c r="B12" s="1">
@@ -2386,7 +3023,7 @@
       <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>0.3</v>
       </c>
       <c r="H12" s="1">
@@ -2395,15 +3032,15 @@
       <c r="I12" s="1">
         <v>0.7</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <v>0.6</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>20.0</v>
       </c>
       <c r="B13" s="1">
@@ -2418,7 +3055,7 @@
       <c r="E13" s="1">
         <v>2.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0.3</v>
       </c>
       <c r="H13" s="1">
@@ -2427,15 +3064,15 @@
       <c r="I13" s="1">
         <v>0.7</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <v>0.6</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>30.0</v>
       </c>
       <c r="B14" s="1">
@@ -2450,7 +3087,7 @@
       <c r="E14" s="1">
         <v>2.0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0.3</v>
       </c>
       <c r="H14" s="1">
@@ -2459,15 +3096,15 @@
       <c r="I14" s="1">
         <v>0.7</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>40.0</v>
       </c>
       <c r="B15" s="1">
@@ -2482,7 +3119,7 @@
       <c r="E15" s="1">
         <v>2.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>0.3</v>
       </c>
       <c r="H15" s="1">
@@ -2491,15 +3128,15 @@
       <c r="I15" s="1">
         <v>0.7</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>0.6</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>50.0</v>
       </c>
       <c r="B16" s="1">
@@ -2514,7 +3151,7 @@
       <c r="E16" s="1">
         <v>2.0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>0.3</v>
       </c>
       <c r="H16" s="1">
@@ -2523,15 +3160,15 @@
       <c r="I16" s="1">
         <v>0.7</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>0.6</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>60.0</v>
       </c>
       <c r="B17" s="1">
@@ -2546,7 +3183,7 @@
       <c r="E17" s="1">
         <v>2.0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>0.3</v>
       </c>
       <c r="H17" s="1">
@@ -2555,15 +3192,15 @@
       <c r="I17" s="1">
         <v>0.7</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>0.6</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>70.0</v>
       </c>
       <c r="B18" s="1">
@@ -2578,7 +3215,7 @@
       <c r="E18" s="1">
         <v>2.0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>0.3</v>
       </c>
       <c r="H18" s="1">
@@ -2587,15 +3224,15 @@
       <c r="I18" s="1">
         <v>0.7</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0.6</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>80.0</v>
       </c>
       <c r="B19" s="1">
@@ -2610,7 +3247,7 @@
       <c r="E19" s="1">
         <v>2.0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>0.3</v>
       </c>
       <c r="H19" s="1">
@@ -2619,15 +3256,15 @@
       <c r="I19" s="1">
         <v>0.7</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>0.6</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>90.0</v>
       </c>
       <c r="B20" s="1">
@@ -2642,7 +3279,7 @@
       <c r="E20" s="1">
         <v>2.0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>0.3</v>
       </c>
       <c r="H20" s="1">
@@ -2651,15 +3288,15 @@
       <c r="I20" s="1">
         <v>0.7</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>0.6</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>100.0</v>
       </c>
       <c r="B21" s="1">
@@ -2674,7 +3311,7 @@
       <c r="E21" s="1">
         <v>2.0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>0.3</v>
       </c>
       <c r="H21" s="1">
@@ -2683,10 +3320,10 @@
       <c r="I21" s="1">
         <v>0.7</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>0.6</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2715,10 +3352,10 @@
       <c r="I22" s="1">
         <v>0.7</v>
       </c>
-      <c r="J22" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2747,10 +3384,10 @@
       <c r="I23" s="1">
         <v>0.7</v>
       </c>
-      <c r="J23" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2779,10 +3416,10 @@
       <c r="I24" s="1">
         <v>0.7</v>
       </c>
-      <c r="J24" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2811,10 +3448,10 @@
       <c r="I25" s="1">
         <v>0.7</v>
       </c>
-      <c r="J25" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2843,10 +3480,10 @@
       <c r="I26" s="1">
         <v>0.7</v>
       </c>
-      <c r="J26" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="J26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2875,10 +3512,10 @@
       <c r="I27" s="1">
         <v>0.7</v>
       </c>
-      <c r="J27" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="J27" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2907,10 +3544,10 @@
       <c r="I28" s="1">
         <v>0.7</v>
       </c>
-      <c r="J28" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="J28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2939,10 +3576,10 @@
       <c r="I29" s="1">
         <v>0.7</v>
       </c>
-      <c r="J29" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="J29" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2971,10 +3608,10 @@
       <c r="I30" s="1">
         <v>0.7</v>
       </c>
-      <c r="J30" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="J30" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3003,10 +3640,10 @@
       <c r="I31" s="1">
         <v>0.7</v>
       </c>
-      <c r="J31" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3035,7 +3672,7 @@
       <c r="I32" s="1">
         <v>0.7</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>0.8</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -3067,7 +3704,7 @@
       <c r="I33" s="1">
         <v>0.7</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>0.8</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -3099,7 +3736,7 @@
       <c r="I34" s="1">
         <v>0.7</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>0.8</v>
       </c>
       <c r="K34" s="3" t="s">
@@ -3131,7 +3768,7 @@
       <c r="I35" s="1">
         <v>0.7</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>0.8</v>
       </c>
       <c r="K35" s="3" t="s">
@@ -3163,7 +3800,7 @@
       <c r="I36" s="1">
         <v>0.7</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>0.8</v>
       </c>
       <c r="K36" s="3" t="s">
@@ -3195,7 +3832,7 @@
       <c r="I37" s="1">
         <v>0.7</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>0.8</v>
       </c>
       <c r="K37" s="3" t="s">
@@ -3227,7 +3864,7 @@
       <c r="I38" s="1">
         <v>0.7</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>0.8</v>
       </c>
       <c r="K38" s="3" t="s">
@@ -3259,7 +3896,7 @@
       <c r="I39" s="1">
         <v>0.7</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>0.8</v>
       </c>
       <c r="K39" s="3" t="s">
@@ -3291,7 +3928,7 @@
       <c r="I40" s="1">
         <v>0.7</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>0.8</v>
       </c>
       <c r="K40" s="3" t="s">
@@ -3323,7 +3960,7 @@
       <c r="I41" s="1">
         <v>0.7</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>0.8</v>
       </c>
       <c r="K41" s="3" t="s">
@@ -3355,7 +3992,7 @@
       <c r="I42" s="1">
         <v>0.7</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>0.9</v>
       </c>
       <c r="K42" s="3" t="s">
@@ -3387,7 +4024,7 @@
       <c r="I43" s="1">
         <v>0.7</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>0.9</v>
       </c>
       <c r="K43" s="3" t="s">
@@ -3419,7 +4056,7 @@
       <c r="I44" s="1">
         <v>0.7</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>0.9</v>
       </c>
       <c r="K44" s="3" t="s">
@@ -3451,7 +4088,7 @@
       <c r="I45" s="1">
         <v>0.7</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>0.9</v>
       </c>
       <c r="K45" s="3" t="s">
@@ -3483,7 +4120,7 @@
       <c r="I46" s="1">
         <v>0.7</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>0.9</v>
       </c>
       <c r="K46" s="3" t="s">
@@ -3515,7 +4152,7 @@
       <c r="I47" s="1">
         <v>0.7</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>0.9</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -3547,7 +4184,7 @@
       <c r="I48" s="1">
         <v>0.7</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>0.9</v>
       </c>
       <c r="K48" s="3" t="s">
@@ -3579,7 +4216,7 @@
       <c r="I49" s="1">
         <v>0.7</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>0.9</v>
       </c>
       <c r="K49" s="3" t="s">
@@ -3611,7 +4248,7 @@
       <c r="I50" s="1">
         <v>0.7</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>0.9</v>
       </c>
       <c r="K50" s="3" t="s">
@@ -3643,10 +4280,1610 @@
       <c r="I51" s="1">
         <v>0.7</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>0.9</v>
       </c>
       <c r="K51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>120.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B70" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B71" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B74" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B81" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B83" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B88" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="B89" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>11</v>
       </c>
     </row>
